--- a/Data/National Accounts/PSA-Annual-Indicators-Derived.xlsx
+++ b/Data/National Accounts/PSA-Annual-Indicators-Derived.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\QNAP\NAP Dissemination\As of April 2025\Tables\NAP Q1 2000 to Q4 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5F8F1-8DA9-4BD4-8BD6-3BB873962C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E606A0-8DDD-4C94-A84E-ABFA900AE8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="15675" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Annual!$A$1:$Y$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Annual!$A$1:$Z$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Annual!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>National Accounts of the Philippines</t>
   </si>
@@ -177,7 +177,13 @@
     <t>ANNUAL</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Note: * December 2025 interest payment and amortization data are not yet available as of posting.</t>
+  </si>
+  <si>
+    <t>As of January 2026</t>
   </si>
 </sst>
 </file>
@@ -646,44 +652,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="T9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Z29" sqref="Z29"/>
       <selection pane="topRight" activeCell="Z29" sqref="Z29"/>
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:Y7"/>
+      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="12.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="13" t="s">
         <v>43</v>
@@ -711,8 +718,9 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -788,24 +796,27 @@
       <c r="Y8" s="14">
         <v>2024</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="14">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -881,8 +892,11 @@
       <c r="Y13" s="18">
         <v>455396.3328883358</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="18">
+        <v>454218.95209772373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="Y14" s="18">
         <v>176071.43830514236</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="18">
+        <v>177103.79864746798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1035,8 +1052,11 @@
       <c r="Y15" s="18">
         <v>726004.88495674066</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="18">
+        <v>740831.51346674026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1132,11 @@
       <c r="Y16" s="18">
         <v>469073.99679361412</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="18">
+        <v>463419.84757838334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1150,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1203,8 +1226,11 @@
       <c r="Y18" s="19">
         <v>4.261576629695881</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="19">
+        <v>-0.25853980490896333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1280,8 +1306,11 @@
       <c r="Y19" s="19">
         <v>9.1748061903034426</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="19">
+        <v>0.58633038513404756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1357,8 +1386,11 @@
       <c r="Y20" s="19">
         <v>-0.13544258327500813</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="19">
+        <v>2.0422215906829706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1434,8 +1466,11 @@
       <c r="Y21" s="19">
         <v>2.1716506377891278</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="19">
+        <v>-1.2053853451438528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1509,10 +1544,13 @@
         <v>209.39260567101309</v>
       </c>
       <c r="Y22" s="19">
-        <v>210.87975127748595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+        <v>214.33812568807002</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>223.84278425504519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1526,7 +1564,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1602,8 +1640,11 @@
       <c r="Y24" s="19">
         <v>-0.11596456502639445</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="19">
+        <v>0.21901636414747241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1679,8 +1720,11 @@
       <c r="Y25" s="19">
         <v>1.4854386351558211</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="19">
+        <v>0.39374978826718887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -1756,8 +1800,11 @@
       <c r="Y26" s="19">
         <v>3.7791492762411636</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="19">
+        <v>3.2965400857662495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -1833,8 +1880,11 @@
       <c r="Y27" s="19">
         <v>2.5362180893583552</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="19">
+        <v>2.1450298031547304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
@@ -1910,8 +1960,11 @@
       <c r="Y28" s="19">
         <v>7.684841435728945</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="19">
+        <v>6.0543360413356409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>39</v>
       </c>
@@ -1987,8 +2040,11 @@
       <c r="Y29" s="19">
         <v>89.807891774966578</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="19">
+        <v>90.465097043109495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
@@ -2064,8 +2120,11 @@
       <c r="Y30" s="18">
         <v>-768473.2722657501</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="18">
+        <v>-769625.39020690694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2138,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
@@ -2093,7 +2152,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -2169,8 +2228,11 @@
       <c r="Y33" s="18">
         <v>-3792036.5496865455</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="18">
+        <v>-3749444.1978886165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
@@ -2246,8 +2308,11 @@
       <c r="Y34" s="19">
         <v>-14.338590219059522</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="19">
+        <v>-13.384053707901659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
@@ -2323,8 +2388,11 @@
       <c r="Y35" s="18">
         <v>-4953939.9732527984</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="18">
+        <v>-4841507.111179946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
@@ -2400,8 +2468,11 @@
       <c r="Y36" s="19">
         <v>65.885472528789066</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="19">
+        <v>66.654331642365534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2486,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>23</v>
       </c>
@@ -2491,8 +2562,11 @@
       <c r="Y38" s="18">
         <v>6816139.4793562237</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="18">
+        <v>7461638.2629789859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
@@ -2568,8 +2642,11 @@
       <c r="Y39" s="18">
         <v>119009.57990885559</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="18">
+        <v>129678.14611222115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>24</v>
       </c>
@@ -2645,8 +2722,11 @@
       <c r="Y40" s="19">
         <v>25.773441154864766</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="19">
+        <v>26.635138967231935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
@@ -2660,7 +2740,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>23</v>
       </c>
@@ -2736,8 +2816,11 @@
       <c r="Y42" s="18">
         <v>10608176.029042769</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="18">
+        <v>11211082.460867602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
@@ -2813,8 +2896,11 @@
       <c r="Y43" s="18">
         <v>185161.1211680992</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="18">
+        <v>195035.53886749747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>24</v>
       </c>
@@ -2890,8 +2976,11 @@
       <c r="Y44" s="19">
         <v>40.112031373924289</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Z44" s="19">
+        <v>40.019192675133588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>41</v>
       </c>
@@ -2967,8 +3056,11 @@
       <c r="Y45" s="19">
         <v>68.25689514322201</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="Z45" s="19">
+        <v>71.941820755228875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>27</v>
       </c>
@@ -3044,8 +3136,11 @@
       <c r="Y46" s="19">
         <v>60.864942674198815</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="19">
+        <v>61.120819461796977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>28</v>
       </c>
@@ -3121,8 +3216,11 @@
       <c r="Y47" s="19">
         <v>11.527940954855797</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="19">
+        <v>12.995682033828485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>29</v>
       </c>
@@ -3136,7 +3234,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3310,11 @@
       <c r="Y49" s="18">
         <v>3659967.0427601235</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="18">
+        <v>4379637.3553943578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>30</v>
       </c>
@@ -3289,8 +3390,11 @@
       <c r="Y50" s="18">
         <v>63851.08111834828</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="18">
+        <v>76161.661847930576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>31</v>
       </c>
@@ -3366,8 +3470,11 @@
       <c r="Y51" s="19">
         <v>27.086538718065725</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="19">
+        <v>19.663300358341559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -3443,8 +3550,11 @@
       <c r="Y52" s="19">
         <v>23.479376684136071</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="19">
+        <v>19.280144539392481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>38</v>
       </c>
@@ -3520,8 +3630,11 @@
       <c r="Y53" s="19">
         <v>12.243828793712911</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="19">
+        <v>13.60190491261544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
@@ -3597,8 +3710,11 @@
       <c r="Y54" s="19">
         <v>13.839204067201955</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="19">
+        <v>15.633597539267017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>33</v>
       </c>
@@ -3674,8 +3790,11 @@
       <c r="Y55" s="19">
         <v>23.570507069845377</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="19">
+        <v>22.686153371928842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -3751,8 +3870,11 @@
       <c r="Y56" s="19">
         <v>76.145393421070068</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="19">
+        <v>76.419216296468377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -3828,8 +3950,11 @@
       <c r="Y57" s="19">
         <v>15.677153099355342</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="19">
+        <v>15.32570445775093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>42</v>
       </c>
@@ -3905,8 +4030,11 @@
       <c r="Y58" s="19">
         <v>7.6405269932896163</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z58" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3932,9 +4060,15 @@
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="12"/>
+    </row>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
     </row>
